--- a/Globals.xlsx
+++ b/Globals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tabtoy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DAC64BD-E271-4CF8-9CF4-8D7DD8BDEB2A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C646CC3D-04A5-45C3-A421-1FB42B9FC041}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4395" yWindow="1875" windowWidth="27795" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7065" yWindow="1290" windowWidth="21600" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="@Types" sheetId="2" r:id="rId1"/>
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
   <si>
     <t>TableName: "Globals" Package: "table"</t>
   </si>
@@ -252,6 +252,30 @@
   </si>
   <si>
     <t>Value</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vector2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vector3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>z</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -747,10 +771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -928,11 +952,81 @@
         <v>0</v>
       </c>
     </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Globals.xlsx
+++ b/Globals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tabtoy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C646CC3D-04A5-45C3-A421-1FB42B9FC041}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC884451-5F57-412D-AA92-C03FE38F0EB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7065" yWindow="1290" windowWidth="21600" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="@Types" sheetId="2" r:id="rId1"/>
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="44">
   <si>
     <t>TableName: "Globals" Package: "table"</t>
   </si>
@@ -277,6 +277,42 @@
   <si>
     <t>z</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>minLevel</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxLevel</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelLimit</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nt</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级限制区间</t>
   </si>
 </sst>
 </file>
@@ -771,10 +807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1020,6 +1056,34 @@
       </c>
       <c r="H14">
         <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Globals.xlsx
+++ b/Globals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tabtoy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC884451-5F57-412D-AA92-C03FE38F0EB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB5579B-BB8A-405C-83F7-20E612951F2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="@Types" sheetId="2" r:id="rId1"/>
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="46">
   <si>
     <t>TableName: "Globals" Package: "table"</t>
   </si>
@@ -313,6 +313,13 @@
   </si>
   <si>
     <t>等级限制区间</t>
+  </si>
+  <si>
+    <t>Vector</t>
+  </si>
+  <si>
+    <t>Vector</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -807,10 +814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1084,6 +1091,48 @@
       </c>
       <c r="G16" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
